--- a/scrum/Work breakdown structure.xlsx
+++ b/scrum/Work breakdown structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/170ad8df2ec9dbaf/Ambiente de Trabalho/ES_P1/SE2122_57464_58763_57677_58125_63764/scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\Faculdade\3º Ano\1º Semestre\ES\jabref\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35023BD-4636-4587-ACAB-91EF719258B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD662076-3250-4509-BA21-F9467419216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="-108" windowWidth="22092" windowHeight="13176" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,120 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Burndown chart</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Member's work</t>
+  </si>
+  <si>
+    <t>Work breakdown
+structure (project)</t>
+  </si>
+  <si>
+    <t>1.1.3.1</t>
+  </si>
+  <si>
+    <t>Use case diagrams</t>
+  </si>
+  <si>
+    <t>1.1.3.2</t>
+  </si>
+  <si>
+    <t>Use case descriptions</t>
+  </si>
+  <si>
+    <t>1.1.3.3</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>Patterns review</t>
+  </si>
+  <si>
+    <t>1.1.3.5</t>
+  </si>
+  <si>
+    <t>1.1.3.7</t>
+  </si>
+  <si>
+    <t>1.1.3.6</t>
+  </si>
+  <si>
+    <t>Metrics set</t>
+  </si>
+  <si>
+    <t>Metrics set review</t>
+  </si>
+  <si>
+    <t>Data collected metrics</t>
+  </si>
+  <si>
+    <t>1.1.3.8</t>
+  </si>
+  <si>
+    <t>Code smells</t>
+  </si>
+  <si>
+    <t>1.1.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Code smells review</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +154,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,13 +242,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="40% - Cor1" xfId="4" builtinId="31"/>
+    <cellStyle name="60% - Cor2" xfId="5" builtinId="36"/>
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -81,6 +292,1667 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3476909E-7316-48B4-A084-2F4E314E8C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105776" y="38100"/>
+          <a:ext cx="1447800" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Projeto</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C28464-424B-4F44-A904-87972C931D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457826" y="733425"/>
+          <a:ext cx="1047750" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.0 Phase 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>504826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conexão: Ângulo Reto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB0DBC4-37E9-48CC-90AD-DA1EAFB90556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7291389" y="-804862"/>
+          <a:ext cx="228600" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E489376-9450-4456-8BEB-0BEFFB4D6182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1152525"/>
+          <a:ext cx="933450" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> Sprint1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Retângulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41833A94-D5D6-4FA3-BC78-B097E515B681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="1543050"/>
+          <a:ext cx="1552575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.1 Burndown chart</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Retângulo 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7EEF51-3287-4283-B7C7-6BD7A0CB4E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="2000250"/>
+          <a:ext cx="1571625" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.2 Sprint backlog</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Retângulo 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDA5640-DF91-4349-B7F7-6E367E2CAB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="2495550"/>
+          <a:ext cx="1495425" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3 Members's work</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29793CAD-1155-406C-89BA-E4919C8BA51F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400799" y="2914650"/>
+          <a:ext cx="1781175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.1 Use case diagrams</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Retângulo 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90EC260-E24F-40AB-8FD0-0057EE85A632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="3343275"/>
+          <a:ext cx="1905000" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.2 Use case descriptions</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85571654-FEF7-4865-9EFB-28F50D48C4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="3752850"/>
+          <a:ext cx="1162050" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.3 Patterns</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Retângulo 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B4DE4A-9E18-4B13-B140-C77F638B78A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="4143375"/>
+          <a:ext cx="1562100" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.4 Patterns review</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Retângulo 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5121EC-B437-4A2D-9222-A186C17AD586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="4600575"/>
+          <a:ext cx="1295400" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> Metrics set</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Retângulo 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7452D854-1B33-42C3-B19B-52234AF785B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="5067300"/>
+          <a:ext cx="1704976" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> Metrics set review</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Retângulo 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583AD8EB-FC23-46D1-8A11-3F4340EAE051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="5495925"/>
+          <a:ext cx="1895475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.7 Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> collected metrics</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Retângulo 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC1009D-71B3-4C2D-A4C7-6E54A67A8DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="5943600"/>
+          <a:ext cx="1343025" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> Code smells </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Retângulo 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984B391E-8BD3-48E4-BFE3-249D7A3A0F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="6372225"/>
+          <a:ext cx="1800225" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>1.1.3.9 Code smells review</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Conexão: Ângulo Reto 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC32E17-BB4C-46CE-B7FA-9120E403B093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5538788" y="1081087"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conexão: Ângulo Reto 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7561C227-4F3E-4ACB-B98E-86A70D0F1608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5845969" y="1469231"/>
+          <a:ext cx="271463" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Conexão: Ângulo Reto 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5BAA17-5082-4A9D-AA1D-30FB50FE4F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5622131" y="1683544"/>
+          <a:ext cx="719138" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Conexão: Ângulo Reto 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0024BF9-90DB-4951-A084-D2699BF1A1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5374481" y="1931194"/>
+          <a:ext cx="1214438" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conexão: Ângulo Reto 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4727D7-BDA4-4F79-A259-DD99E351A764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6155531" y="2817019"/>
+          <a:ext cx="271463" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conexão: Ângulo Reto 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429BD9BA-3007-4EF6-A19D-97927A992DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5941218" y="3031331"/>
+          <a:ext cx="700088" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Conexão: Ângulo Reto 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9975205-BCFD-4654-B10A-DDE5D423707C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5541169" y="3431381"/>
+          <a:ext cx="1500188" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Conexão: Ângulo Reto 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA742D59-23C6-4146-AD58-D400D57FEC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5303043" y="3669506"/>
+          <a:ext cx="1976438" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conexão: Ângulo Reto 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E113C7-B839-460B-9645-69CF354617DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5079206" y="3893344"/>
+          <a:ext cx="2414588" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Conexão: Ângulo Reto 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0C1843-EBE7-4FDF-A9B4-FE78C9C11E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4864894" y="4107656"/>
+          <a:ext cx="2843213" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Conexão: Ângulo Reto 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7A884E-2C9E-4E3F-A32A-1E1A1DD5C5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4631531" y="4341018"/>
+          <a:ext cx="3300413" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Conexão: Ângulo Reto 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643EE9BF-D7BF-409A-805F-F83E6A440251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4407693" y="4555331"/>
+          <a:ext cx="3748088" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +2252,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14313233-5121-439E-9E22-04A47B3579FC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="10"/>
+    </row>
+    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scrum/Work breakdown structure.xlsx
+++ b/scrum/Work breakdown structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\Faculdade\3º Ano\1º Semestre\ES\jabref\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\SE2122_57464_58763_57677_58125_63764\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD662076-3250-4509-BA21-F9467419216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB6F89-197B-41B1-927A-431CEA531BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,10 @@
     <t>Phase 1</t>
   </si>
   <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
     <t>Sprint Backlog</t>
-  </si>
-  <si>
-    <t>Burndown chart</t>
   </si>
   <si>
     <t>1.1.2</t>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>To Do</t>
+  </si>
+  <si>
+    <t>Burndown Chart</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -250,28 +250,31 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Cor1" xfId="4" builtinId="31"/>
@@ -2255,169 +2258,169 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
+    <row r="20" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="T20" s="10"/>
-    </row>
-    <row r="24" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P24" s="10"/>
+    <row r="24" spans="16:20" x14ac:dyDescent="0.3">
+      <c r="P24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/Work breakdown structure.xlsx
+++ b/scrum/Work breakdown structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\SE2122_57464_58763_57677_58125_63764\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB6F89-197B-41B1-927A-431CEA531BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035A362-7067-4112-A940-658ACD1836A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Code smells review</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Code smell review</t>
   </si>
 </sst>
 </file>
@@ -266,14 +266,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2258,7 +2258,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,10 +2271,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -2292,13 +2292,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2314,22 +2314,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2409,8 +2409,8 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>

--- a/scrum/Work breakdown structure.xlsx
+++ b/scrum/Work breakdown structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\SE2122_57464_58763_57677_58125_63764\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035A362-7067-4112-A940-658ACD1836A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED7A5DA-E547-4CF1-9CD1-ECB3FEDC71C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>1.1.3</t>
   </si>
   <si>
-    <t>Member's work</t>
-  </si>
-  <si>
     <t>Work breakdown
 structure (project)</t>
   </si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Code smell review</t>
+  </si>
+  <si>
+    <t>Member's works</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2258,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2272,7 +2272,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="2"/>
@@ -2292,13 +2292,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2337,83 +2337,83 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="16:20" x14ac:dyDescent="0.3">

--- a/scrum/Work breakdown structure.xlsx
+++ b/scrum/Work breakdown structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Desktop\SE2122_57464_58763_57677_58125_63764\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED7A5DA-E547-4CF1-9CD1-ECB3FEDC71C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD454A4-71C0-44BF-8CBE-6FF6D88AD08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08C9D72D-549C-45FD-95B2-9CE6A514548F}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,9 +260,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2258,7 +2255,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,10 +2268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -2305,7 +2302,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2313,7 +2310,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2321,7 +2318,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2329,7 +2326,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2337,7 +2334,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2345,7 +2342,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2353,7 +2350,7 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2361,7 +2358,7 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2369,7 +2366,7 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2377,7 +2374,7 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2385,7 +2382,7 @@
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2393,7 +2390,7 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2401,7 +2398,7 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2409,7 +2406,7 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
@@ -2417,10 +2414,10 @@
       </c>
     </row>
     <row r="20" spans="16:20" x14ac:dyDescent="0.3">
-      <c r="T20" s="8"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="24" spans="16:20" x14ac:dyDescent="0.3">
-      <c r="P24" s="8"/>
+      <c r="P24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
